--- a/EL_summary.xlsx
+++ b/EL_summary.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="New" sheetId="2" r:id="rId1"/>
+    <sheet name="OLD" sheetId="1" r:id="rId2"/>
+    <sheet name="EnrichmentAnalysis" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="154">
   <si>
     <t>Test</t>
   </si>
@@ -124,12 +126,373 @@
   </si>
   <si>
     <t xml:space="preserve">num_lines </t>
+  </si>
+  <si>
+    <t># tests</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>M1 v M2</t>
+  </si>
+  <si>
+    <t>M2 v M3</t>
+  </si>
+  <si>
+    <t>M1 v M3</t>
+  </si>
+  <si>
+    <t>File: 20160508-1324</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Real Data</t>
+  </si>
+  <si>
+    <t># sig Ind.</t>
+  </si>
+  <si>
+    <t>8 (IM); 0 (Q)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 (2013); 135 (2014) </t>
+  </si>
+  <si>
+    <t>3 (2013); 0 (2014)</t>
+  </si>
+  <si>
+    <t>0 (IM); 1 (Q)</t>
+  </si>
+  <si>
+    <t>Pr[X&gt;10]</t>
+  </si>
+  <si>
+    <t>Pr[X&gt;15]</t>
+  </si>
+  <si>
+    <t>Test Type</t>
+  </si>
+  <si>
+    <t>Real IM</t>
+  </si>
+  <si>
+    <t>Real Q</t>
+  </si>
+  <si>
+    <t>Real 13</t>
+  </si>
+  <si>
+    <t>Real 14</t>
+  </si>
+  <si>
+    <t>Impol</t>
+  </si>
+  <si>
+    <t>Qpol</t>
+  </si>
+  <si>
+    <t>Brpol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Std. Diff. 10 </t>
+  </si>
+  <si>
+    <t>Std. Diff. 15</t>
+  </si>
+  <si>
+    <t>Sum Std. Diff</t>
+  </si>
+  <si>
+    <t># Significant Tests</t>
+  </si>
+  <si>
+    <t># Total Tests</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Chrom.</t>
+  </si>
+  <si>
+    <t># Sig.</t>
+  </si>
+  <si>
+    <t>BR13</t>
+  </si>
+  <si>
+    <t>IM13</t>
+  </si>
+  <si>
+    <t>IM14</t>
+  </si>
+  <si>
+    <t>Q13</t>
+  </si>
+  <si>
+    <t>Q14</t>
+  </si>
+  <si>
+    <t>Chrom</t>
+  </si>
+  <si>
+    <t>Scaff8</t>
+  </si>
+  <si>
+    <t># Sig</t>
+  </si>
+  <si>
+    <t># Sig/kb</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>0 - 1</t>
+  </si>
+  <si>
+    <t>1 - 2</t>
+  </si>
+  <si>
+    <t>2 - 3</t>
+  </si>
+  <si>
+    <t>3 - 4</t>
+  </si>
+  <si>
+    <t>4 - 5</t>
+  </si>
+  <si>
+    <t>5 - 6</t>
+  </si>
+  <si>
+    <t>6 - 7</t>
+  </si>
+  <si>
+    <t>7 - 8</t>
+  </si>
+  <si>
+    <t>8 - 9</t>
+  </si>
+  <si>
+    <t>9 - 10</t>
+  </si>
+  <si>
+    <t>10 - 11</t>
+  </si>
+  <si>
+    <t>11 - 12</t>
+  </si>
+  <si>
+    <t>12 - 13</t>
+  </si>
+  <si>
+    <t>13 - 14</t>
+  </si>
+  <si>
+    <t>14 - 15</t>
+  </si>
+  <si>
+    <t>15 - 16</t>
+  </si>
+  <si>
+    <t>16 - 17</t>
+  </si>
+  <si>
+    <t>17 - 18</t>
+  </si>
+  <si>
+    <t>18 - 19</t>
+  </si>
+  <si>
+    <t>19 - 20</t>
+  </si>
+  <si>
+    <t>20 - 21</t>
+  </si>
+  <si>
+    <t>21 - 22</t>
+  </si>
+  <si>
+    <t>22 - 23</t>
+  </si>
+  <si>
+    <t>23 - 24</t>
+  </si>
+  <si>
+    <t>24 - 25</t>
+  </si>
+  <si>
+    <t>#Sig/kb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0772349561713 ; num_sig_tests </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4492166 ; num_tests </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.84717126029e-05 ; num_sig_tests </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1105 ; num_tests </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.4924509668e-05 ; num_sig_tests </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4030 ; num_tests </t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Year-IM</t>
+  </si>
+  <si>
+    <t>Year-Q</t>
+  </si>
+  <si>
+    <t># Total</t>
+  </si>
+  <si>
+    <t>Prop. Sig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sig FT Genes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NonSig FT Genes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sig NonFTGenes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NonSig NonFTGenes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sig FTUpstream </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NonSig FTUpstream </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Genes: Odds Ratio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upstream: Odds Ratio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both: Odds Ratio </t>
+  </si>
+  <si>
+    <t>GeneBody</t>
+  </si>
+  <si>
+    <t>Upstream</t>
+  </si>
+  <si>
+    <t>Either</t>
+  </si>
+  <si>
+    <t>Odds-ratio</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>M12-2013</t>
+  </si>
+  <si>
+    <t>M13-2013</t>
+  </si>
+  <si>
+    <t>M23-2013</t>
+  </si>
+  <si>
+    <t>M12-2014</t>
+  </si>
+  <si>
+    <t>M12-IM</t>
+  </si>
+  <si>
+    <t>M23-IM</t>
+  </si>
+  <si>
+    <t>M13-IM</t>
+  </si>
+  <si>
+    <t>M12-Q</t>
+  </si>
+  <si>
+    <t>M23-Q</t>
+  </si>
+  <si>
+    <t>M13-Q</t>
+  </si>
+  <si>
+    <t>QM13</t>
+  </si>
+  <si>
+    <t>QM12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.969820 P-value </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.492057 P-value </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.288291 P-value </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.672101 P-value </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.295789 P-value </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.017105 P-value </t>
+  </si>
+  <si>
+    <t>M23-2014</t>
+  </si>
+  <si>
+    <t>M13-2014</t>
+  </si>
+  <si>
+    <t>2013 Early</t>
+  </si>
+  <si>
+    <t>2013 Late</t>
+  </si>
+  <si>
+    <t>2014 Early</t>
+  </si>
+  <si>
+    <t>2014 Late</t>
+  </si>
+  <si>
+    <t>Variance estimates</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -160,15 +523,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -176,8 +545,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="807">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -247,8 +634,746 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -270,8 +1395,30 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="807">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -306,6 +1453,375 @@
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="764" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="766" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="772" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="774" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="776" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="778" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="782" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="784" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="786" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="790" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="806" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -340,6 +1856,375 @@
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="763" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="765" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="771" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="773" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="775" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="805" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -669,9 +2554,2132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AU106"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:D84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12">
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="4"/>
+      <c r="B5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="13"/>
+      <c r="B6" s="11">
+        <v>2013</v>
+      </c>
+      <c r="C6" s="11">
+        <v>2014</v>
+      </c>
+      <c r="D6" s="11">
+        <v>2013</v>
+      </c>
+      <c r="E6" s="11">
+        <v>2014</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4">
+        <v>590</v>
+      </c>
+      <c r="C7" s="4">
+        <v>247</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3798948</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4488418</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="4">
+        <v>9450</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3086</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4248012</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5089848</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="4">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3715897</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="4"/>
+      <c r="B11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="4">
+        <v>155</v>
+      </c>
+      <c r="C12" s="4">
+        <v>154</v>
+      </c>
+      <c r="D12" s="4">
+        <v>705</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3458706</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="4">
+        <v>101</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>3</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="4">
+        <v>3393012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="4">
+        <v>3429</v>
+      </c>
+      <c r="C13" s="4">
+        <v>262</v>
+      </c>
+      <c r="D13" s="4">
+        <v>4802</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3840040</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="4">
+        <v>5216</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1106</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="4">
+        <v>3769663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="12">
+        <v>2013</v>
+      </c>
+      <c r="B14" s="4">
+        <v>869</v>
+      </c>
+      <c r="C14" s="4">
+        <v>697</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3086</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2416806</v>
+      </c>
+      <c r="G14" s="12">
+        <v>2013</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1203</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>222</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="4">
+        <v>2446033</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="12">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="4">
+        <v>296</v>
+      </c>
+      <c r="C15" s="4">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4">
+        <v>392</v>
+      </c>
+      <c r="E15" s="4">
+        <v>3193898</v>
+      </c>
+      <c r="G15" s="12">
+        <v>2014</v>
+      </c>
+      <c r="H15" s="4">
+        <v>6</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>2</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="4">
+        <v>3210552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>4.3245497613900001E-3</v>
+      </c>
+      <c r="D21" s="4">
+        <v>5.3324731110600005E-4</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1.3586605356375699E-3</v>
+      </c>
+      <c r="F21" s="4">
+        <v>4.1364603463732328E-3</v>
+      </c>
+      <c r="G21" s="4">
+        <v>5.495120882010803E-3</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="C22" s="4">
+        <v>4.4138760745200002E-3</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5.3929979307E-4</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2.204235761435807E-2</v>
+      </c>
+      <c r="F22" s="4">
+        <v>7.166824240017443E-3</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2.9209181854375512E-2</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" t="s">
+        <v>55</v>
+      </c>
+      <c r="M22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="C23" s="4">
+        <v>4.2793297470900002E-3</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5.1588814832200002E-4</v>
+      </c>
+      <c r="E23" s="4">
+        <v>9.1121295921874033E-3</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3.6555484194130357E-2</v>
+      </c>
+      <c r="G23" s="4">
+        <v>4.5667613786317757E-2</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>4.3186821384025896E-3</v>
+      </c>
+      <c r="K23">
+        <v>6.2383316115312004E-3</v>
+      </c>
+      <c r="L23">
+        <v>5.2888116517709697E-3</v>
+      </c>
+      <c r="M23">
+        <v>3.6069004514260902E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="C24" s="4">
+        <v>4.34440872906E-3</v>
+      </c>
+      <c r="D24" s="4">
+        <v>5.5696757460600005E-4</v>
+      </c>
+      <c r="E24" s="4">
+        <v>5.9570465787802118E-3</v>
+      </c>
+      <c r="F24" s="4">
+        <v>4.0162207604961385E-2</v>
+      </c>
+      <c r="G24" s="4">
+        <v>4.6119254183741597E-2</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24">
+        <v>15</v>
+      </c>
+      <c r="J24">
+        <v>5.3546222938483101E-4</v>
+      </c>
+      <c r="K24">
+        <v>1.01485194281514E-3</v>
+      </c>
+      <c r="L24">
+        <v>7.4395895398871004E-4</v>
+      </c>
+      <c r="M24">
+        <v>4.3458140855723299E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="B25" s="4">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C25" s="4">
+        <v>6.3132656924100002E-3</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1.02769572671E-3</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1.2011878422796312E-2</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1.2655820374381069E-2</v>
+      </c>
+      <c r="G25" s="4">
+        <v>2.4667698797177381E-2</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C26" s="4">
+        <v>6.1632054023799997E-3</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1.0280405289900001E-3</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1.2042676444505481E-2</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1.2995576614137149E-2</v>
+      </c>
+      <c r="G26" s="4">
+        <v>2.5038253058642629E-2</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="B27" s="4">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C27" s="4">
+        <v>6.0556959967800004E-3</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1.01195653219E-3</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2.9276355622648933E-2</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2.8530374757013794E-3</v>
+      </c>
+      <c r="G27" s="4">
+        <v>3.2129393098350313E-2</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="C28" s="4">
+        <v>6.2225484807799996E-3</v>
+      </c>
+      <c r="D28" s="4">
+        <v>9.8078285644199992E-4</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2.5300243292656266E-3</v>
+      </c>
+      <c r="F28" s="4">
+        <v>3.3570499238178911E-2</v>
+      </c>
+      <c r="G28" s="4">
+        <v>3.6100523567444538E-2</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="C29" s="4">
+        <v>5.2969597487599997E-3</v>
+      </c>
+      <c r="D29" s="4">
+        <v>7.4504779882999996E-4</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1.5406290723742457E-3</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1.4635818756560609E-3</v>
+      </c>
+      <c r="G29" s="4">
+        <v>3.0042109480303064E-3</v>
+      </c>
+      <c r="H29" s="4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.115</v>
+      </c>
+      <c r="C30" s="4">
+        <v>5.3727121811299999E-3</v>
+      </c>
+      <c r="D30" s="4">
+        <v>7.4665351858200005E-4</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1.5863777136199565E-2</v>
+      </c>
+      <c r="F30" s="4">
+        <v>3.6219264232834236E-3</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1.9485703559482988E-2</v>
+      </c>
+      <c r="H30" s="4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="C31" s="4">
+        <v>5.1458555745000001E-3</v>
+      </c>
+      <c r="D31" s="4">
+        <v>7.3862813779799997E-4</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2.7029905143833303E-2</v>
+      </c>
+      <c r="F31" s="4">
+        <v>7.1654708396600231E-3</v>
+      </c>
+      <c r="G31" s="4">
+        <v>3.4195375983493329E-2</v>
+      </c>
+      <c r="H31" s="4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="C32" s="4">
+        <v>5.4037400132800001E-3</v>
+      </c>
+      <c r="D32" s="4">
+        <v>7.5347846219199998E-4</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2.1730469730482163E-2</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1.2795743840774304E-2</v>
+      </c>
+      <c r="G32" s="4">
+        <v>3.4526213571256466E-2</v>
+      </c>
+      <c r="H32" s="4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="C33" s="4">
+        <v>3.6193120123499999E-3</v>
+      </c>
+      <c r="D33" s="4">
+        <v>4.3849289846500001E-4</v>
+      </c>
+      <c r="E33" s="4">
+        <v>3.4410600156714669E-3</v>
+      </c>
+      <c r="F33" s="4">
+        <v>9.0005919046394038E-3</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1.2441651920310871E-2</v>
+      </c>
+      <c r="H33" s="4">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C34" s="4">
+        <v>3.7027153178800002E-3</v>
+      </c>
+      <c r="D34" s="4">
+        <v>4.3885522581800003E-4</v>
+      </c>
+      <c r="E34" s="4">
+        <v>2.6564322399312921E-2</v>
+      </c>
+      <c r="F34" s="4">
+        <v>9.8343306377410133E-3</v>
+      </c>
+      <c r="G34" s="4">
+        <v>3.6398653037053932E-2</v>
+      </c>
+      <c r="H34" s="4">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="C35" s="4">
+        <v>3.6687112266800001E-3</v>
+      </c>
+      <c r="D35" s="4">
+        <v>4.26149300597E-4</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1.7136812087361959E-2</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1.9402827167012842E-2</v>
+      </c>
+      <c r="G35" s="4">
+        <v>3.6539639254374798E-2</v>
+      </c>
+      <c r="H35" s="4">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C36" s="4">
+        <v>3.54766853537E-3</v>
+      </c>
+      <c r="D36" s="4">
+        <v>4.44996596186E-4</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1.6421832776857263E-2</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2.3966022070167251E-2</v>
+      </c>
+      <c r="G36" s="4">
+        <v>4.0387854847024514E-2</v>
+      </c>
+      <c r="H36" s="4">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>649099</v>
+      </c>
+      <c r="E40">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1246256</v>
+      </c>
+      <c r="E41">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>502759</v>
+      </c>
+      <c r="E42">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>521661</v>
+      </c>
+      <c r="E43">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>733043</v>
+      </c>
+      <c r="E44">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>584950</v>
+      </c>
+      <c r="E45">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1895145</v>
+      </c>
+      <c r="E46">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47">
+        <v>1294520</v>
+      </c>
+      <c r="E47">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48">
+        <v>1895950</v>
+      </c>
+      <c r="E48">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="49" spans="1:47">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49">
+        <v>2084129</v>
+      </c>
+      <c r="E49">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="52" spans="1:47">
+      <c r="B52" s="9">
+        <v>2013</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="16">
+        <v>2014</v>
+      </c>
+      <c r="E52" s="16"/>
+      <c r="L52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:47">
+      <c r="A53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G53" t="s">
+        <v>73</v>
+      </c>
+      <c r="H53" t="s">
+        <v>68</v>
+      </c>
+      <c r="I53" t="s">
+        <v>69</v>
+      </c>
+      <c r="J53" t="s">
+        <v>71</v>
+      </c>
+      <c r="L53" t="s">
+        <v>77</v>
+      </c>
+      <c r="M53" t="s">
+        <v>75</v>
+      </c>
+      <c r="N53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:47">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>314</v>
+      </c>
+      <c r="C54" s="15">
+        <v>2.371614E-2</v>
+      </c>
+      <c r="D54">
+        <v>23</v>
+      </c>
+      <c r="E54" s="15">
+        <v>1.7155680000000002E-3</v>
+      </c>
+      <c r="F54" s="15"/>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>28</v>
+      </c>
+      <c r="J54">
+        <v>284</v>
+      </c>
+      <c r="L54" t="s">
+        <v>78</v>
+      </c>
+      <c r="M54">
+        <v>127</v>
+      </c>
+      <c r="N54">
+        <f>M54/10^3</f>
+        <v>0.127</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2">
+        <v>0</v>
+      </c>
+      <c r="U54" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V54" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="W54" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="X54" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="Y54" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="Z54" s="2">
+        <v>6000000</v>
+      </c>
+      <c r="AA54" s="2">
+        <v>7000000</v>
+      </c>
+      <c r="AB54" s="2">
+        <v>8000000</v>
+      </c>
+      <c r="AC54" s="2">
+        <v>9000000</v>
+      </c>
+      <c r="AD54" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="AE54" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="AF54" s="2">
+        <v>12000000</v>
+      </c>
+      <c r="AG54" s="2">
+        <v>13000000</v>
+      </c>
+      <c r="AH54" s="2">
+        <v>14000000</v>
+      </c>
+      <c r="AI54" s="2">
+        <v>15000000</v>
+      </c>
+      <c r="AJ54" s="2">
+        <v>16000000</v>
+      </c>
+      <c r="AK54" s="2">
+        <v>17000000</v>
+      </c>
+      <c r="AL54" s="2">
+        <v>18000000</v>
+      </c>
+      <c r="AM54" s="2">
+        <v>19000000</v>
+      </c>
+      <c r="AN54" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="AO54" s="2">
+        <v>21000000</v>
+      </c>
+      <c r="AP54" s="2">
+        <v>22000000</v>
+      </c>
+      <c r="AQ54" s="2">
+        <v>23000000</v>
+      </c>
+      <c r="AR54" s="2">
+        <v>24000000</v>
+      </c>
+      <c r="AS54" s="2"/>
+      <c r="AT54" s="2"/>
+      <c r="AU54" s="2"/>
+    </row>
+    <row r="55" spans="1:47">
+      <c r="A55" s="10">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>466</v>
+      </c>
+      <c r="C55" s="15">
+        <v>2.445174E-2</v>
+      </c>
+      <c r="D55">
+        <v>48</v>
+      </c>
+      <c r="E55" s="15">
+        <v>2.5220090000000004E-3</v>
+      </c>
+      <c r="F55" s="15"/>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55" s="2">
+        <v>3</v>
+      </c>
+      <c r="I55" s="2">
+        <v>44</v>
+      </c>
+      <c r="J55" s="2">
+        <v>419</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M55">
+        <v>436</v>
+      </c>
+      <c r="N55">
+        <f t="shared" ref="N55:N78" si="0">M55/10^3</f>
+        <v>0.436</v>
+      </c>
+      <c r="T55">
+        <v>127</v>
+      </c>
+      <c r="U55">
+        <v>436</v>
+      </c>
+      <c r="V55">
+        <v>606</v>
+      </c>
+      <c r="W55">
+        <v>532</v>
+      </c>
+      <c r="X55">
+        <v>109</v>
+      </c>
+      <c r="Y55">
+        <v>149</v>
+      </c>
+      <c r="Z55">
+        <v>445</v>
+      </c>
+      <c r="AA55">
+        <v>172</v>
+      </c>
+      <c r="AB55">
+        <v>22</v>
+      </c>
+      <c r="AC55">
+        <v>37</v>
+      </c>
+      <c r="AD55">
+        <v>82</v>
+      </c>
+      <c r="AE55">
+        <v>26</v>
+      </c>
+      <c r="AF55">
+        <v>1</v>
+      </c>
+      <c r="AG55">
+        <v>21</v>
+      </c>
+      <c r="AH55">
+        <v>34</v>
+      </c>
+      <c r="AI55">
+        <v>38</v>
+      </c>
+      <c r="AJ55">
+        <v>49</v>
+      </c>
+      <c r="AK55">
+        <v>58</v>
+      </c>
+      <c r="AL55">
+        <v>96</v>
+      </c>
+      <c r="AM55">
+        <v>61</v>
+      </c>
+      <c r="AN55">
+        <v>43</v>
+      </c>
+      <c r="AO55">
+        <v>67</v>
+      </c>
+      <c r="AP55">
+        <v>52</v>
+      </c>
+      <c r="AQ55">
+        <v>24</v>
+      </c>
+      <c r="AR55">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:47">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>392</v>
+      </c>
+      <c r="C56" s="15">
+        <v>2.0869619999999998E-2</v>
+      </c>
+      <c r="D56">
+        <v>28</v>
+      </c>
+      <c r="E56" s="15">
+        <v>1.497104E-3</v>
+      </c>
+      <c r="F56" s="15"/>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>32</v>
+      </c>
+      <c r="J56">
+        <v>359</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M56">
+        <v>606</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="0"/>
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="O56" s="2">
+        <f>SUM(M54:M58)</f>
+        <v>1810</v>
+      </c>
+      <c r="P56" s="2">
+        <f>O56/5000</f>
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="2"/>
+    </row>
+    <row r="57" spans="1:47">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>605</v>
+      </c>
+      <c r="C57" s="15">
+        <v>2.8539220000000001E-2</v>
+      </c>
+      <c r="D57">
+        <v>73</v>
+      </c>
+      <c r="E57" s="15">
+        <v>3.573377E-3</v>
+      </c>
+      <c r="F57" s="15"/>
+      <c r="G57">
+        <v>4</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>40</v>
+      </c>
+      <c r="J57" s="2">
+        <v>565</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="M57">
+        <v>532</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="0"/>
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+    </row>
+    <row r="58" spans="1:47">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>380</v>
+      </c>
+      <c r="C58" s="15">
+        <v>1.5693809999999999E-2</v>
+      </c>
+      <c r="D58">
+        <v>27</v>
+      </c>
+      <c r="E58" s="15">
+        <v>1.1143629999999999E-3</v>
+      </c>
+      <c r="F58" s="15"/>
+      <c r="G58">
+        <v>5</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58">
+        <v>34</v>
+      </c>
+      <c r="J58">
+        <v>344</v>
+      </c>
+      <c r="L58" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M58">
+        <v>109</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="0"/>
+        <v>0.109</v>
+      </c>
+      <c r="O58">
+        <f>SUM(M58:M78)</f>
+        <v>1632</v>
+      </c>
+      <c r="P58">
+        <f>O58/20000</f>
+        <v>8.1600000000000006E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:47">
+      <c r="A59">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <v>611</v>
+      </c>
+      <c r="C59" s="15">
+        <v>3.1472220000000002E-2</v>
+      </c>
+      <c r="D59">
+        <v>43</v>
+      </c>
+      <c r="E59" s="15">
+        <v>2.2173940000000001E-3</v>
+      </c>
+      <c r="F59" s="15"/>
+      <c r="G59">
+        <v>6</v>
+      </c>
+      <c r="H59" s="2">
+        <v>1</v>
+      </c>
+      <c r="I59" s="2">
+        <v>36</v>
+      </c>
+      <c r="J59">
+        <v>574</v>
+      </c>
+      <c r="L59" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M59">
+        <v>149</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="0"/>
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:47">
+      <c r="A60">
+        <v>7</v>
+      </c>
+      <c r="B60">
+        <v>355</v>
+      </c>
+      <c r="C60" s="15">
+        <v>1.9734499999999999E-2</v>
+      </c>
+      <c r="D60">
+        <v>18</v>
+      </c>
+      <c r="E60" s="15">
+        <v>1.0922180000000001E-3</v>
+      </c>
+      <c r="F60" s="15"/>
+      <c r="G60">
+        <v>7</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>32</v>
+      </c>
+      <c r="J60">
+        <v>322</v>
+      </c>
+      <c r="L60" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M60">
+        <v>445</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="0"/>
+        <v>0.44500000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:47">
+      <c r="A61">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <v>3333</v>
+      </c>
+      <c r="C61" s="15">
+        <v>0.1336813</v>
+      </c>
+      <c r="D61">
+        <v>38</v>
+      </c>
+      <c r="E61" s="15">
+        <v>1.61461E-3</v>
+      </c>
+      <c r="F61" s="15"/>
+      <c r="G61">
+        <v>8</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>51</v>
+      </c>
+      <c r="J61">
+        <v>3281</v>
+      </c>
+      <c r="L61" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="M61">
+        <v>172</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="0"/>
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:47">
+      <c r="A62">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>359</v>
+      </c>
+      <c r="C62" s="15">
+        <v>2.4373739999999998E-2</v>
+      </c>
+      <c r="D62">
+        <v>16</v>
+      </c>
+      <c r="E62" s="15">
+        <v>1.0862949999999999E-3</v>
+      </c>
+      <c r="F62" s="15"/>
+      <c r="G62">
+        <v>9</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>33</v>
+      </c>
+      <c r="J62">
+        <v>326</v>
+      </c>
+      <c r="L62" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M62">
+        <v>22</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:47">
+      <c r="A63">
+        <v>10</v>
+      </c>
+      <c r="B63">
+        <v>570</v>
+      </c>
+      <c r="C63" s="15">
+        <v>2.9757829999999999E-2</v>
+      </c>
+      <c r="D63">
+        <v>25</v>
+      </c>
+      <c r="E63" s="15">
+        <v>1.3115729999999999E-3</v>
+      </c>
+      <c r="F63" s="15"/>
+      <c r="G63">
+        <v>10</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>33</v>
+      </c>
+      <c r="J63">
+        <v>537</v>
+      </c>
+      <c r="L63" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M63">
+        <v>37</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="0"/>
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:47">
+      <c r="A64">
+        <v>11</v>
+      </c>
+      <c r="B64">
+        <v>481</v>
+      </c>
+      <c r="C64" s="15">
+        <v>1.9357659999999999E-2</v>
+      </c>
+      <c r="D64">
+        <v>20</v>
+      </c>
+      <c r="E64" s="15">
+        <v>8.6287129999999997E-4</v>
+      </c>
+      <c r="F64" s="15"/>
+      <c r="G64">
+        <v>11</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>36</v>
+      </c>
+      <c r="J64">
+        <v>444</v>
+      </c>
+      <c r="L64" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M64">
+        <v>82</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="0"/>
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65">
+        <v>12</v>
+      </c>
+      <c r="B65">
+        <v>512</v>
+      </c>
+      <c r="C65" s="15">
+        <v>1.9274570000000001E-2</v>
+      </c>
+      <c r="D65">
+        <v>32</v>
+      </c>
+      <c r="E65" s="15">
+        <v>1.207952E-3</v>
+      </c>
+      <c r="F65" s="15"/>
+      <c r="G65">
+        <v>12</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>65</v>
+      </c>
+      <c r="J65">
+        <v>446</v>
+      </c>
+      <c r="L65" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="M65">
+        <v>26</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66">
+        <v>13</v>
+      </c>
+      <c r="B66">
+        <v>685</v>
+      </c>
+      <c r="C66" s="15">
+        <v>3.2655730000000001E-2</v>
+      </c>
+      <c r="D66">
+        <v>41</v>
+      </c>
+      <c r="E66" s="15">
+        <v>1.938719E-3</v>
+      </c>
+      <c r="F66" s="15"/>
+      <c r="G66">
+        <v>13</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>30</v>
+      </c>
+      <c r="J66">
+        <v>655</v>
+      </c>
+      <c r="L66" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67">
+        <v>14</v>
+      </c>
+      <c r="B67">
+        <v>747</v>
+      </c>
+      <c r="C67" s="15">
+        <v>2.8755320000000001E-2</v>
+      </c>
+      <c r="D67">
+        <v>78</v>
+      </c>
+      <c r="E67" s="15">
+        <v>3.001676E-3</v>
+      </c>
+      <c r="F67" s="15"/>
+      <c r="G67">
+        <v>14</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>56</v>
+      </c>
+      <c r="J67">
+        <v>690</v>
+      </c>
+      <c r="L67" t="s">
+        <v>91</v>
+      </c>
+      <c r="M67">
+        <v>21</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="0"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="L68" t="s">
+        <v>92</v>
+      </c>
+      <c r="M68">
+        <v>34</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="L69" t="s">
+        <v>93</v>
+      </c>
+      <c r="M69">
+        <v>38</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="0"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="L70" t="s">
+        <v>94</v>
+      </c>
+      <c r="M70">
+        <v>49</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="0"/>
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="L71" t="s">
+        <v>95</v>
+      </c>
+      <c r="M71">
+        <v>58</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="0"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="L72" t="s">
+        <v>96</v>
+      </c>
+      <c r="M72">
+        <v>96</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="0"/>
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="L73" t="s">
+        <v>97</v>
+      </c>
+      <c r="M73">
+        <v>61</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="0"/>
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="L74" t="s">
+        <v>98</v>
+      </c>
+      <c r="M74">
+        <v>43</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="0"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="L75" t="s">
+        <v>99</v>
+      </c>
+      <c r="M75">
+        <v>67</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="0"/>
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="L76" t="s">
+        <v>100</v>
+      </c>
+      <c r="M76">
+        <v>52</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="0"/>
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="L77" t="s">
+        <v>101</v>
+      </c>
+      <c r="M77">
+        <v>24</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="0"/>
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="L78" t="s">
+        <v>102</v>
+      </c>
+      <c r="M78">
+        <v>46</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="B80" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" t="s">
+        <v>149</v>
+      </c>
+      <c r="B81" s="14">
+        <v>3.1943454869850098E-2</v>
+      </c>
+      <c r="C81" s="14">
+        <v>1.4140671510664799E-2</v>
+      </c>
+      <c r="D81" s="14">
+        <v>1.5278212239675701E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" t="s">
+        <v>150</v>
+      </c>
+      <c r="B82" s="14">
+        <v>3.29001888287411E-2</v>
+      </c>
+      <c r="C82" s="14">
+        <v>2.0007149821123001E-2</v>
+      </c>
+      <c r="D82" s="14">
+        <v>2.1207920026741899E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" t="s">
+        <v>151</v>
+      </c>
+      <c r="B83" s="14">
+        <v>2.71018983104988E-2</v>
+      </c>
+      <c r="C83" s="14">
+        <v>6.6349383482011701E-3</v>
+      </c>
+      <c r="D83" s="14">
+        <v>8.2510518410872404E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" s="14">
+        <v>1.1013959899381399E-2</v>
+      </c>
+      <c r="D84" s="14">
+        <v>1.30222983597531E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" t="s">
+        <v>104</v>
+      </c>
+      <c r="C98" t="s">
+        <v>105</v>
+      </c>
+      <c r="D98">
+        <v>5816233</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" t="s">
+        <v>106</v>
+      </c>
+      <c r="C99" t="s">
+        <v>107</v>
+      </c>
+      <c r="D99">
+        <v>3880525</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" t="s">
+        <v>108</v>
+      </c>
+      <c r="C100" t="s">
+        <v>109</v>
+      </c>
+      <c r="D100">
+        <v>4237533</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>75</v>
+      </c>
+      <c r="C103" t="s">
+        <v>113</v>
+      </c>
+      <c r="D103" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104">
+        <v>4492166</v>
+      </c>
+      <c r="C104">
+        <v>5816233</v>
+      </c>
+      <c r="D104">
+        <f>B104/C104</f>
+        <v>0.77234973220639547</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105">
+        <v>1105</v>
+      </c>
+      <c r="C105">
+        <v>3880525</v>
+      </c>
+      <c r="D105">
+        <f t="shared" ref="D105:D106" si="1">B105/C105</f>
+        <v>2.847552844009509E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106">
+        <v>4030</v>
+      </c>
+      <c r="C106">
+        <v>4237533</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>9.5102504216486338E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -681,25 +4689,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9">
         <v>2014</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9">
         <v>2013</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
@@ -1425,4 +5433,1601 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="B1" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4">
+        <v>229</v>
+      </c>
+      <c r="C4">
+        <v>226</v>
+      </c>
+      <c r="D4">
+        <v>223</v>
+      </c>
+      <c r="E4">
+        <v>231</v>
+      </c>
+      <c r="F4">
+        <v>230</v>
+      </c>
+      <c r="G4">
+        <v>229</v>
+      </c>
+      <c r="H4">
+        <v>225</v>
+      </c>
+      <c r="I4">
+        <v>215</v>
+      </c>
+      <c r="J4">
+        <v>209</v>
+      </c>
+      <c r="L4" t="s">
+        <v>141</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5">
+        <v>372</v>
+      </c>
+      <c r="C5">
+        <v>488</v>
+      </c>
+      <c r="D5">
+        <v>848</v>
+      </c>
+      <c r="E5">
+        <v>304</v>
+      </c>
+      <c r="F5">
+        <v>416</v>
+      </c>
+      <c r="G5">
+        <v>706</v>
+      </c>
+      <c r="H5">
+        <v>1235</v>
+      </c>
+      <c r="I5">
+        <v>1606</v>
+      </c>
+      <c r="J5">
+        <v>2727</v>
+      </c>
+      <c r="L5" t="s">
+        <v>142</v>
+      </c>
+      <c r="M5">
+        <v>0.30796899999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6">
+        <v>27536</v>
+      </c>
+      <c r="C6">
+        <v>27420</v>
+      </c>
+      <c r="D6">
+        <v>27060</v>
+      </c>
+      <c r="E6">
+        <v>27604</v>
+      </c>
+      <c r="F6">
+        <v>27492</v>
+      </c>
+      <c r="G6">
+        <v>27202</v>
+      </c>
+      <c r="H6">
+        <v>26673</v>
+      </c>
+      <c r="I6">
+        <v>26302</v>
+      </c>
+      <c r="J6">
+        <v>25181</v>
+      </c>
+      <c r="L6" t="s">
+        <v>143</v>
+      </c>
+      <c r="M6">
+        <v>0.43872899999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7">
+        <v>0.96981969291400005</v>
+      </c>
+      <c r="C7">
+        <v>1.4920571594400001</v>
+      </c>
+      <c r="D7">
+        <v>1.2882910990800001</v>
+      </c>
+      <c r="E7">
+        <v>0.393099225336</v>
+      </c>
+      <c r="F7">
+        <v>0.57470735786000005</v>
+      </c>
+      <c r="G7">
+        <v>0.50481215285100001</v>
+      </c>
+      <c r="H7">
+        <v>0.67210076473199998</v>
+      </c>
+      <c r="I7">
+        <v>1.29578904689</v>
+      </c>
+      <c r="J7">
+        <v>1.0171052192900001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.307968931926</v>
+      </c>
+      <c r="D8">
+        <v>0.43872915052099998</v>
+      </c>
+      <c r="E8">
+        <v>0.52589934776000002</v>
+      </c>
+      <c r="F8">
+        <v>0.59094687913900001</v>
+      </c>
+      <c r="G8">
+        <v>0.29456940761200001</v>
+      </c>
+      <c r="H8">
+        <v>0.41909563618000001</v>
+      </c>
+      <c r="I8">
+        <v>0.31939974071100002</v>
+      </c>
+      <c r="J8">
+        <v>0.91152858324099995</v>
+      </c>
+      <c r="L8" t="s">
+        <v>144</v>
+      </c>
+      <c r="M8">
+        <v>0.41909600000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="L9" t="s">
+        <v>145</v>
+      </c>
+      <c r="M9">
+        <v>0.31940000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="L10" t="s">
+        <v>146</v>
+      </c>
+      <c r="M10">
+        <v>0.91152900000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="B11" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14">
+        <v>231</v>
+      </c>
+      <c r="C14">
+        <v>232</v>
+      </c>
+      <c r="D14">
+        <v>231</v>
+      </c>
+      <c r="E14">
+        <v>232</v>
+      </c>
+      <c r="F14">
+        <v>232</v>
+      </c>
+      <c r="G14">
+        <v>232</v>
+      </c>
+      <c r="H14">
+        <v>230</v>
+      </c>
+      <c r="I14">
+        <v>230</v>
+      </c>
+      <c r="J14">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15">
+        <v>114</v>
+      </c>
+      <c r="C15">
+        <v>116</v>
+      </c>
+      <c r="D15">
+        <v>230</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>155</v>
+      </c>
+      <c r="I15">
+        <v>192</v>
+      </c>
+      <c r="J15">
+        <v>347</v>
+      </c>
+      <c r="K15" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L15" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M15" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N15" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O15" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P15" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16">
+        <v>27794</v>
+      </c>
+      <c r="C16">
+        <v>27792</v>
+      </c>
+      <c r="D16">
+        <v>27678</v>
+      </c>
+      <c r="E16">
+        <v>27904</v>
+      </c>
+      <c r="F16">
+        <v>27904</v>
+      </c>
+      <c r="G16">
+        <v>27900</v>
+      </c>
+      <c r="H16">
+        <v>27753</v>
+      </c>
+      <c r="I16">
+        <v>27716</v>
+      </c>
+      <c r="J16">
+        <v>27561</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17">
+        <v>1.05547960811</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.52096743835899995</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1.5570827489500001</v>
+      </c>
+      <c r="I17">
+        <v>1.2553442028999999</v>
+      </c>
+      <c r="J17">
+        <v>1.39364983063</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18">
+        <v>0.61478520170600004</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0.371869874519</v>
+      </c>
+      <c r="I18">
+        <v>0.67590140378100005</v>
+      </c>
+      <c r="J18">
+        <v>0.54113158865099997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" t="s">
+        <v>124</v>
+      </c>
+      <c r="I22" t="s">
+        <v>125</v>
+      </c>
+      <c r="J22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24">
+        <v>232</v>
+      </c>
+      <c r="C24">
+        <v>229</v>
+      </c>
+      <c r="D24">
+        <v>229</v>
+      </c>
+      <c r="E24">
+        <v>231</v>
+      </c>
+      <c r="F24">
+        <v>232</v>
+      </c>
+      <c r="G24">
+        <v>231</v>
+      </c>
+      <c r="H24">
+        <v>229</v>
+      </c>
+      <c r="I24">
+        <v>228</v>
+      </c>
+      <c r="J24">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25">
+        <v>62</v>
+      </c>
+      <c r="C25">
+        <v>82</v>
+      </c>
+      <c r="D25">
+        <v>143</v>
+      </c>
+      <c r="E25">
+        <v>65</v>
+      </c>
+      <c r="F25">
+        <v>94</v>
+      </c>
+      <c r="G25">
+        <v>157</v>
+      </c>
+      <c r="H25">
+        <v>283</v>
+      </c>
+      <c r="I25">
+        <v>350</v>
+      </c>
+      <c r="J25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26">
+        <v>27846</v>
+      </c>
+      <c r="C26">
+        <v>27826</v>
+      </c>
+      <c r="D26">
+        <v>27765</v>
+      </c>
+      <c r="E26">
+        <v>27843</v>
+      </c>
+      <c r="F26">
+        <v>27814</v>
+      </c>
+      <c r="G26">
+        <v>27751</v>
+      </c>
+      <c r="H26">
+        <v>27625</v>
+      </c>
+      <c r="I26">
+        <v>27558</v>
+      </c>
+      <c r="J26">
+        <v>27288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>4.4460006390500002</v>
+      </c>
+      <c r="D27">
+        <v>2.5438666137400001</v>
+      </c>
+      <c r="E27">
+        <v>1.8544122544099999</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0.76521355502199995</v>
+      </c>
+      <c r="H27">
+        <v>1.2789359174199999</v>
+      </c>
+      <c r="I27">
+        <v>1.38155388471</v>
+      </c>
+      <c r="J27">
+        <v>1.3696415770599999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="17">
+        <v>3.3333917746699998E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.120112116288</v>
+      </c>
+      <c r="E28">
+        <v>0.42132081884400002</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0.51264516745599997</v>
+      </c>
+      <c r="I28">
+        <v>0.54278327667699999</v>
+      </c>
+      <c r="J28">
+        <v>0.36832360796699998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="B31" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" t="s">
+        <v>126</v>
+      </c>
+      <c r="H32" t="s">
+        <v>124</v>
+      </c>
+      <c r="I32" t="s">
+        <v>125</v>
+      </c>
+      <c r="J32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>22</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>21</v>
+      </c>
+      <c r="I33">
+        <v>27</v>
+      </c>
+      <c r="J33">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34">
+        <v>217</v>
+      </c>
+      <c r="C34">
+        <v>210</v>
+      </c>
+      <c r="D34">
+        <v>200</v>
+      </c>
+      <c r="E34">
+        <v>230</v>
+      </c>
+      <c r="F34">
+        <v>230</v>
+      </c>
+      <c r="G34">
+        <v>228</v>
+      </c>
+      <c r="H34">
+        <v>211</v>
+      </c>
+      <c r="I34">
+        <v>205</v>
+      </c>
+      <c r="J34">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35">
+        <v>1219</v>
+      </c>
+      <c r="C35">
+        <v>1345</v>
+      </c>
+      <c r="D35">
+        <v>2325</v>
+      </c>
+      <c r="E35">
+        <v>110</v>
+      </c>
+      <c r="F35">
+        <v>166</v>
+      </c>
+      <c r="G35">
+        <v>274</v>
+      </c>
+      <c r="H35">
+        <v>1680</v>
+      </c>
+      <c r="I35">
+        <v>1992</v>
+      </c>
+      <c r="J35">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36">
+        <v>26689</v>
+      </c>
+      <c r="C36">
+        <v>26563</v>
+      </c>
+      <c r="D36">
+        <v>25583</v>
+      </c>
+      <c r="E36">
+        <v>27798</v>
+      </c>
+      <c r="F36">
+        <v>27742</v>
+      </c>
+      <c r="G36">
+        <v>27634</v>
+      </c>
+      <c r="H36">
+        <v>26228</v>
+      </c>
+      <c r="I36">
+        <v>25916</v>
+      </c>
+      <c r="J36">
+        <v>24572</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37">
+        <v>1.51427286096</v>
+      </c>
+      <c r="C37">
+        <v>2.0707027792499999</v>
+      </c>
+      <c r="D37">
+        <v>1.76275268817</v>
+      </c>
+      <c r="E37">
+        <v>2.1976284585000001</v>
+      </c>
+      <c r="F37">
+        <v>1.4533263488699999</v>
+      </c>
+      <c r="G37">
+        <v>1.7696247919100001</v>
+      </c>
+      <c r="H37">
+        <v>1.55503554502</v>
+      </c>
+      <c r="I37">
+        <v>1.7153026741099999</v>
+      </c>
+      <c r="J37">
+        <v>1.5837586475300001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38">
+        <v>0.14320075682899999</v>
+      </c>
+      <c r="C38" s="17">
+        <v>2.96405284119E-3</v>
+      </c>
+      <c r="D38" s="17">
+        <v>5.67445294654E-3</v>
+      </c>
+      <c r="E38">
+        <v>0.235878086131</v>
+      </c>
+      <c r="F38">
+        <v>0.40391407622699999</v>
+      </c>
+      <c r="G38">
+        <v>0.29663731465499998</v>
+      </c>
+      <c r="H38">
+        <v>6.9675431436600002E-2</v>
+      </c>
+      <c r="I38" s="17">
+        <v>1.41921852112E-2</v>
+      </c>
+      <c r="J38" s="17">
+        <v>1.07705025037E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="B42" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
+        <v>1245</v>
+      </c>
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" t="s">
+        <v>125</v>
+      </c>
+      <c r="G43" t="s">
+        <v>126</v>
+      </c>
+      <c r="H43" t="s">
+        <v>124</v>
+      </c>
+      <c r="I43" t="s">
+        <v>125</v>
+      </c>
+      <c r="J43" t="s">
+        <v>126</v>
+      </c>
+      <c r="K43" t="s">
+        <v>124</v>
+      </c>
+      <c r="L43" t="s">
+        <v>125</v>
+      </c>
+      <c r="M43" t="s">
+        <v>126</v>
+      </c>
+      <c r="N43" t="s">
+        <v>124</v>
+      </c>
+      <c r="O43" t="s">
+        <v>125</v>
+      </c>
+      <c r="P43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>37</v>
+      </c>
+      <c r="I44">
+        <v>32</v>
+      </c>
+      <c r="J44">
+        <v>60</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45">
+        <v>231</v>
+      </c>
+      <c r="C45">
+        <v>231</v>
+      </c>
+      <c r="D45">
+        <v>230</v>
+      </c>
+      <c r="E45">
+        <v>231</v>
+      </c>
+      <c r="F45">
+        <v>231</v>
+      </c>
+      <c r="G45">
+        <v>230</v>
+      </c>
+      <c r="H45">
+        <v>195</v>
+      </c>
+      <c r="I45">
+        <v>200</v>
+      </c>
+      <c r="J45">
+        <v>172</v>
+      </c>
+      <c r="K45">
+        <v>232</v>
+      </c>
+      <c r="L45">
+        <v>231</v>
+      </c>
+      <c r="M45">
+        <v>231</v>
+      </c>
+      <c r="N45">
+        <v>232</v>
+      </c>
+      <c r="O45">
+        <v>232</v>
+      </c>
+      <c r="P45">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46">
+        <v>214</v>
+      </c>
+      <c r="C46">
+        <v>271</v>
+      </c>
+      <c r="D46">
+        <v>476</v>
+      </c>
+      <c r="E46">
+        <v>108</v>
+      </c>
+      <c r="F46">
+        <v>115</v>
+      </c>
+      <c r="G46">
+        <v>220</v>
+      </c>
+      <c r="H46">
+        <v>2863</v>
+      </c>
+      <c r="I46">
+        <v>3785</v>
+      </c>
+      <c r="J46">
+        <v>5952</v>
+      </c>
+      <c r="K46">
+        <v>102</v>
+      </c>
+      <c r="L46">
+        <v>152</v>
+      </c>
+      <c r="M46">
+        <v>252</v>
+      </c>
+      <c r="N46">
+        <v>5</v>
+      </c>
+      <c r="O46">
+        <v>8</v>
+      </c>
+      <c r="P46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47">
+        <v>27694</v>
+      </c>
+      <c r="C47">
+        <v>27637</v>
+      </c>
+      <c r="D47">
+        <v>27432</v>
+      </c>
+      <c r="E47">
+        <v>27800</v>
+      </c>
+      <c r="F47">
+        <v>27793</v>
+      </c>
+      <c r="G47">
+        <v>27688</v>
+      </c>
+      <c r="H47">
+        <v>25045</v>
+      </c>
+      <c r="I47">
+        <v>24123</v>
+      </c>
+      <c r="J47">
+        <v>21956</v>
+      </c>
+      <c r="K47">
+        <v>27806</v>
+      </c>
+      <c r="L47">
+        <v>27756</v>
+      </c>
+      <c r="M47">
+        <v>27656</v>
+      </c>
+      <c r="N47">
+        <v>27903</v>
+      </c>
+      <c r="O47">
+        <v>27900</v>
+      </c>
+      <c r="P47">
+        <v>27895</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48">
+        <v>0.56024193874700001</v>
+      </c>
+      <c r="C48">
+        <v>0.44149454481599998</v>
+      </c>
+      <c r="D48">
+        <v>0.50116916331799999</v>
+      </c>
+      <c r="E48">
+        <v>1.1143578643600001</v>
+      </c>
+      <c r="F48">
+        <v>1.04626388105</v>
+      </c>
+      <c r="G48">
+        <v>1.09446640316</v>
+      </c>
+      <c r="H48">
+        <v>1.6622943478700001</v>
+      </c>
+      <c r="I48">
+        <v>1.02108322325</v>
+      </c>
+      <c r="J48">
+        <v>1.2903225806500001</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0.79052745500099997</v>
+      </c>
+      <c r="M48">
+        <v>0.47510822510799999</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0.730900977984</v>
+      </c>
+      <c r="D49">
+        <v>0.446784598064</v>
+      </c>
+      <c r="E49">
+        <v>0.59508801323399996</v>
+      </c>
+      <c r="F49">
+        <v>0.61797402043000005</v>
+      </c>
+      <c r="G49">
+        <v>0.70606381658700001</v>
+      </c>
+      <c r="H49" s="17">
+        <v>6.5308080919799999E-3</v>
+      </c>
+      <c r="I49">
+        <v>0.92318634080200002</v>
+      </c>
+      <c r="J49">
+        <v>9.1295418337699996E-2</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>0.72757152893699995</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="E53">
+        <v>1.292036</v>
+      </c>
+      <c r="F53">
+        <v>1.399098</v>
+      </c>
+      <c r="G53">
+        <v>1.4007529999999999</v>
+      </c>
+      <c r="I53">
+        <v>1.858741</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0.76954299999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="E54">
+        <v>0.50863800000000003</v>
+      </c>
+      <c r="F54">
+        <v>0.54042900000000005</v>
+      </c>
+      <c r="G54">
+        <v>0.36025099999999999</v>
+      </c>
+      <c r="I54">
+        <v>0.42058699999999999</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="B60" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62">
+        <v>225</v>
+      </c>
+      <c r="C62">
+        <v>191</v>
+      </c>
+      <c r="M62" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63">
+        <v>620</v>
+      </c>
+      <c r="C63">
+        <v>3336</v>
+      </c>
+      <c r="M63" t="s">
+        <v>121</v>
+      </c>
+      <c r="O63">
+        <v>1.5833969999999999</v>
+      </c>
+      <c r="P63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64">
+        <v>27288</v>
+      </c>
+      <c r="C64">
+        <v>24572</v>
+      </c>
+      <c r="E64">
+        <f>SUM(C63:C64)</f>
+        <v>27908</v>
+      </c>
+      <c r="M64" t="s">
+        <v>122</v>
+      </c>
+      <c r="O64">
+        <v>2.175465</v>
+      </c>
+      <c r="P64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" s="15">
+        <v>1.3696415770599999</v>
+      </c>
+      <c r="C65" s="15">
+        <v>1.5837586475300001</v>
+      </c>
+      <c r="M65" t="s">
+        <v>123</v>
+      </c>
+      <c r="O65">
+        <v>1.9227529999999999</v>
+      </c>
+      <c r="P65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" s="15">
+        <v>0.36832360796699998</v>
+      </c>
+      <c r="C66" s="20">
+        <v>1.07705025037E-2</v>
+      </c>
+      <c r="M66" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="M67" t="s">
+        <v>121</v>
+      </c>
+      <c r="O67">
+        <v>1.6545620000000001</v>
+      </c>
+      <c r="P67" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>